--- a/此次的原料切割通列.xlsx
+++ b/此次的原料切割通列.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>剩余长度中有效使用部分</t>
+          <t>剩余长度中有效使用比例</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>每根原料管剩余长度</t>
+          <t>舍弃长度</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">

--- a/此次的原料切割通列.xlsx
+++ b/此次的原料切割通列.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>剩余长度中有效使用比例</t>
+          <t>剩余长度中有效使用长度</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
